--- a/inst/extdata/examples/xlsx/dot-whisker-double.xlsx
+++ b/inst/extdata/examples/xlsx/dot-whisker-double.xlsx
@@ -976,7 +976,7 @@
       </c>
       <c r="B23"/>
       <c r="C23" t="n">
-        <v>0.0686302242149209</v>
+        <v>0.068630224214921</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
